--- a/Code/Results/Cases/Case_2_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.342817116381809</v>
+        <v>1.056501879908353</v>
       </c>
       <c r="C2">
-        <v>0.4831691674800425</v>
+        <v>0.1897083962827537</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03471793937838497</v>
+        <v>0.08946581615927029</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.697873947120172</v>
+        <v>0.8393329927350806</v>
       </c>
       <c r="H2">
-        <v>0.4647830814787994</v>
+        <v>0.8837776229843968</v>
       </c>
       <c r="I2">
-        <v>0.4095315601763971</v>
+        <v>0.8150015711907415</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1637035796500399</v>
+        <v>0.2075937874129465</v>
       </c>
       <c r="M2">
-        <v>0.4040356566555303</v>
+        <v>0.2389369135504111</v>
       </c>
       <c r="N2">
-        <v>0.7349323174949376</v>
+        <v>1.408836080745495</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.03351234701671</v>
+        <v>0.9703779529608028</v>
       </c>
       <c r="C3">
-        <v>0.4253021705255833</v>
+        <v>0.171470773973823</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03523710874214686</v>
+        <v>0.08987119776263774</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.6446416888139481</v>
+        <v>0.8341860943733934</v>
       </c>
       <c r="H3">
-        <v>0.448150355353917</v>
+        <v>0.8869222500388787</v>
       </c>
       <c r="I3">
-        <v>0.4034196978487437</v>
+        <v>0.8209674896580594</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1485482442493762</v>
+        <v>0.2048676727839691</v>
       </c>
       <c r="M3">
-        <v>0.3523402860752043</v>
+        <v>0.2253560573279287</v>
       </c>
       <c r="N3">
-        <v>0.7763363915990595</v>
+        <v>1.425743839560418</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.844788759264702</v>
+        <v>0.9178159457725599</v>
       </c>
       <c r="C4">
-        <v>0.3899021365866702</v>
+        <v>0.1601919505871479</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03557657307314344</v>
+        <v>0.09013542060389934</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.6138781325340545</v>
+        <v>0.8317159349234657</v>
       </c>
       <c r="H4">
-        <v>0.4390395934567835</v>
+        <v>0.8893691384776332</v>
       </c>
       <c r="I4">
-        <v>0.4008344000326218</v>
+        <v>0.8251536703059053</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1394497020080721</v>
+        <v>0.2032991707167895</v>
       </c>
       <c r="M4">
-        <v>0.3208767243128818</v>
+        <v>0.2171178492876109</v>
       </c>
       <c r="N4">
-        <v>0.8029887836502994</v>
+        <v>1.436700085840581</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.768135198467235</v>
+        <v>0.8964772808081136</v>
       </c>
       <c r="C5">
-        <v>0.3754988954823375</v>
+        <v>0.1555753714161483</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0357200470269341</v>
+        <v>0.09024695334857158</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.6017890109852715</v>
+        <v>0.8308822803044507</v>
       </c>
       <c r="H5">
-        <v>0.4355874923275849</v>
+        <v>0.8904958936483212</v>
       </c>
       <c r="I5">
-        <v>0.4000578983515588</v>
+        <v>0.8269908835474808</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1357902131677022</v>
+        <v>0.2026865156704929</v>
       </c>
       <c r="M5">
-        <v>0.3081162354954046</v>
+        <v>0.213786094590759</v>
       </c>
       <c r="N5">
-        <v>0.8141501954064871</v>
+        <v>1.441309367947799</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.755420898475734</v>
+        <v>0.8929389116609343</v>
       </c>
       <c r="C6">
-        <v>0.3731083240074895</v>
+        <v>0.1548075608046986</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03574417941547414</v>
+        <v>0.09026570664038314</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.5998076289418179</v>
+        <v>0.8307542821724354</v>
       </c>
       <c r="H6">
-        <v>0.4350295515852025</v>
+        <v>0.8906908155661029</v>
       </c>
       <c r="I6">
-        <v>0.3999452277967244</v>
+        <v>0.8273038757487328</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1351853650550225</v>
+        <v>0.2025863876267309</v>
       </c>
       <c r="M6">
-        <v>0.3060008182706042</v>
+        <v>0.213234395609355</v>
       </c>
       <c r="N6">
-        <v>0.8160214272023545</v>
+        <v>1.442083464083321</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.843754018236041</v>
+        <v>0.9175278370598505</v>
       </c>
       <c r="C7">
-        <v>0.389707811156967</v>
+        <v>0.1601297722981769</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03557848728372415</v>
+        <v>0.09013690913426664</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.6137133292027102</v>
+        <v>0.8317039924261564</v>
       </c>
       <c r="H7">
-        <v>0.4389920030330643</v>
+        <v>0.8893838096243059</v>
       </c>
       <c r="I7">
-        <v>0.4008228273165777</v>
+        <v>0.8251779162322421</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1394001583754871</v>
+        <v>0.2032908008045382</v>
       </c>
       <c r="M7">
-        <v>0.3207043952527187</v>
+        <v>0.2170728131584667</v>
       </c>
       <c r="N7">
-        <v>0.803138105728042</v>
+        <v>1.436761663090547</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.23589259669842</v>
+        <v>1.026740653957972</v>
       </c>
       <c r="C8">
-        <v>0.463183119364146</v>
+        <v>0.1834368170488574</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03489261429539525</v>
+        <v>0.08960241767724286</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.6790984353547884</v>
+        <v>0.837414776237452</v>
       </c>
       <c r="H8">
-        <v>0.4588092182361692</v>
+        <v>0.8847546911140398</v>
       </c>
       <c r="I8">
-        <v>0.407171636864831</v>
+        <v>0.8169499191504883</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1584327263830048</v>
+        <v>0.2066319772872021</v>
       </c>
       <c r="M8">
-        <v>0.3861480902078753</v>
+        <v>0.2342334394847398</v>
       </c>
       <c r="N8">
-        <v>0.7489475629631563</v>
+        <v>1.414546562587223</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.016621495163236</v>
+        <v>1.243413859792724</v>
       </c>
       <c r="C9">
-        <v>0.608810721772727</v>
+        <v>0.2285041083789565</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03371495779432765</v>
+        <v>0.08867543998649463</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.8243009531390868</v>
+        <v>0.854116368449553</v>
       </c>
       <c r="H9">
-        <v>0.5072105493110399</v>
+        <v>0.8797791264002939</v>
       </c>
       <c r="I9">
-        <v>0.4296828591460411</v>
+        <v>0.8049757507656921</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1975814606928168</v>
+        <v>0.2140190348238491</v>
       </c>
       <c r="M9">
-        <v>0.5171102255262596</v>
+        <v>0.2686797731844237</v>
       </c>
       <c r="N9">
-        <v>0.6528708366043148</v>
+        <v>1.375544119948071</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.600894218773931</v>
+        <v>1.404123278357019</v>
       </c>
       <c r="C10">
-        <v>0.7175209520535191</v>
+        <v>0.2612344658201096</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03295663134662619</v>
+        <v>0.08806772908958882</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.9439517155360875</v>
+        <v>0.8697825429484709</v>
       </c>
       <c r="H10">
-        <v>0.5497877022503559</v>
+        <v>0.8786356868334053</v>
       </c>
       <c r="I10">
-        <v>0.4535530188388464</v>
+        <v>0.798730074179673</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2277353348857503</v>
+        <v>0.2199551448359784</v>
       </c>
       <c r="M10">
-        <v>0.6155763211051024</v>
+        <v>0.2944707039993162</v>
       </c>
       <c r="N10">
-        <v>0.5891359524225805</v>
+        <v>1.349669654958333</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.869874463281178</v>
+        <v>1.477563410513142</v>
       </c>
       <c r="C11">
-        <v>0.767541630827651</v>
+        <v>0.2760436631714924</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03263611810710387</v>
+        <v>0.08780708011078375</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.001840765264006</v>
+        <v>0.8776557957110356</v>
       </c>
       <c r="H11">
-        <v>0.5709747527285032</v>
+        <v>0.8786635434740191</v>
       </c>
       <c r="I11">
-        <v>0.4662962693106181</v>
+        <v>0.7964461721145781</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2418228945203964</v>
+        <v>0.2227661450364451</v>
       </c>
       <c r="M11">
-        <v>0.6610177092965301</v>
+        <v>0.3063085603922389</v>
       </c>
       <c r="N11">
-        <v>0.5617852786995421</v>
+        <v>1.33850253605107</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.972267518224157</v>
+        <v>1.505420665834436</v>
       </c>
       <c r="C12">
-        <v>0.7865825146234329</v>
+        <v>0.2816401050105526</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0325183867376827</v>
+        <v>0.08771064308650223</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.024318124154348</v>
+        <v>0.8807452324366096</v>
       </c>
       <c r="H12">
-        <v>0.5792862765234048</v>
+        <v>0.8787530876855243</v>
       </c>
       <c r="I12">
-        <v>0.4714196640652162</v>
+        <v>0.7956617220856259</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2472168846587124</v>
+        <v>0.2238464901631687</v>
       </c>
       <c r="M12">
-        <v>0.6783328334603453</v>
+        <v>0.3108063436367203</v>
       </c>
       <c r="N12">
-        <v>0.551678976953351</v>
+        <v>1.334360639074152</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.950190193934418</v>
+        <v>1.49941902597385</v>
       </c>
       <c r="C13">
-        <v>0.7824770130553702</v>
+        <v>0.280435321288337</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03254357826577448</v>
+        <v>0.08773131189859362</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.019451501891481</v>
+        <v>0.8800750530866139</v>
       </c>
       <c r="H13">
-        <v>0.5774829563498258</v>
+        <v>0.8787302863154451</v>
       </c>
       <c r="I13">
-        <v>0.4703025516392074</v>
+        <v>0.7958270865718902</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2460524509364745</v>
+        <v>0.2236131126802121</v>
       </c>
       <c r="M13">
-        <v>0.6745986926609788</v>
+        <v>0.3098369983101108</v>
       </c>
       <c r="N13">
-        <v>0.5538441491481585</v>
+        <v>1.335248806527947</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.878287190241394</v>
+        <v>1.479854304618414</v>
       </c>
       <c r="C14">
-        <v>0.7691060424818943</v>
+        <v>0.2765043157357923</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03262635856063012</v>
+        <v>0.08779910082388709</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.00367849246642</v>
+        <v>0.8779077972291986</v>
       </c>
       <c r="H14">
-        <v>0.571652602576421</v>
+        <v>0.8786693260373681</v>
       </c>
       <c r="I14">
-        <v>0.4667116434991812</v>
+        <v>0.7963800217295187</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2422654354537457</v>
+        <v>0.2228547075769143</v>
       </c>
       <c r="M14">
-        <v>0.6624399955054443</v>
+        <v>0.3066782948910358</v>
       </c>
       <c r="N14">
-        <v>0.5609487125196253</v>
+        <v>1.338160038562194</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.834316749014192</v>
+        <v>1.467876455526209</v>
       </c>
       <c r="C15">
-        <v>0.7609293965315658</v>
+        <v>0.274094967075257</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0326775418569385</v>
+        <v>0.08784091826722884</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.9940913116172112</v>
+        <v>0.8765943751947844</v>
       </c>
       <c r="H15">
-        <v>0.5681197493807417</v>
+        <v>0.8786422793778854</v>
       </c>
       <c r="I15">
-        <v>0.4645517279907878</v>
+        <v>0.7967291910101366</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2399536958251076</v>
+        <v>0.2223922298001639</v>
       </c>
       <c r="M15">
-        <v>0.6550068795356623</v>
+        <v>0.3047454535474898</v>
       </c>
       <c r="N15">
-        <v>0.5653335798201518</v>
+        <v>1.339954565372704</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.583386381874448</v>
+        <v>1.399330421065997</v>
       </c>
       <c r="C16">
-        <v>0.7142648647018177</v>
+        <v>0.2602650421345913</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03297807993035284</v>
+        <v>0.08808508046931973</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.9402430274069786</v>
+        <v>0.8692830863448648</v>
       </c>
       <c r="H16">
-        <v>0.5484419193649188</v>
+        <v>0.87864491012472</v>
       </c>
       <c r="I16">
-        <v>0.4527603770091631</v>
+        <v>0.7988905702353861</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2268226405518163</v>
+        <v>0.2197736631406286</v>
       </c>
       <c r="M16">
-        <v>0.612620855196468</v>
+        <v>0.2936991837812641</v>
       </c>
       <c r="N16">
-        <v>0.5909576565257417</v>
+        <v>1.350411600404243</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.430318845274314</v>
+        <v>1.357364297692584</v>
       </c>
       <c r="C17">
-        <v>0.6857950266459909</v>
+        <v>0.2517603571511415</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03316879666708139</v>
+        <v>0.08823890814584934</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.9081348940249825</v>
+        <v>0.8649895339832057</v>
       </c>
       <c r="H17">
-        <v>0.5368543798871457</v>
+        <v>0.8787870192936964</v>
       </c>
       <c r="I17">
-        <v>0.4460277820563547</v>
+        <v>0.8003594376503287</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2188661926046223</v>
+        <v>0.2181955728082556</v>
       </c>
       <c r="M17">
-        <v>0.5867942301252</v>
+        <v>0.2869495752226072</v>
       </c>
       <c r="N17">
-        <v>0.6071079119945431</v>
+        <v>1.356981238882675</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.342573837714667</v>
+        <v>1.333257845394655</v>
       </c>
       <c r="C18">
-        <v>0.6694722326674025</v>
+        <v>0.2468611551717856</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03328078529239342</v>
+        <v>0.08832887351904495</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.8899889427829919</v>
+        <v>0.8625902342076586</v>
       </c>
       <c r="H18">
-        <v>0.5303589457443962</v>
+        <v>0.8789203267158427</v>
       </c>
       <c r="I18">
-        <v>0.4423310186572849</v>
+        <v>0.8012567292318238</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2143243256834637</v>
+        <v>0.2172983120748739</v>
       </c>
       <c r="M18">
-        <v>0.5719995719789353</v>
+        <v>0.2830773096545727</v>
       </c>
       <c r="N18">
-        <v>0.6165507799350358</v>
+        <v>1.36081670112754</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.312913384584931</v>
+        <v>1.325101222770002</v>
       </c>
       <c r="C19">
-        <v>0.6639540935764217</v>
+        <v>0.2452010751621572</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03331909308653902</v>
+        <v>0.08835958999300664</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.8838986053224005</v>
+        <v>0.8617899164379565</v>
       </c>
       <c r="H19">
-        <v>0.5281880184509475</v>
+        <v>0.8789743136995298</v>
       </c>
       <c r="I19">
-        <v>0.4411087475533861</v>
+        <v>0.8015695345937885</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2127922715073112</v>
+        <v>0.2169963046881378</v>
       </c>
       <c r="M19">
-        <v>0.5670002716427334</v>
+        <v>0.2817679362705405</v>
       </c>
       <c r="N19">
-        <v>0.6197739409917133</v>
+        <v>1.36212507197714</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.446582038009922</v>
+        <v>1.361828423872964</v>
       </c>
       <c r="C20">
-        <v>0.6888201551271607</v>
+        <v>0.2526664747553298</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03314825633889285</v>
+        <v>0.08822237900168062</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.9115191473299546</v>
+        <v>0.8654393159460909</v>
       </c>
       <c r="H20">
-        <v>0.5380701723231454</v>
+        <v>0.8787665528411424</v>
       </c>
       <c r="I20">
-        <v>0.4467261129283315</v>
+        <v>0.8001976450765085</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2197095600774617</v>
+        <v>0.2183624855055513</v>
       </c>
       <c r="M20">
-        <v>0.5895371962432066</v>
+        <v>0.2876670556322694</v>
       </c>
       <c r="N20">
-        <v>0.6053726839344513</v>
+        <v>1.356276012468864</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.899391645843536</v>
+        <v>1.485599666049666</v>
       </c>
       <c r="C21">
-        <v>0.7730305819611658</v>
+        <v>0.2776592587100879</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03260194412858897</v>
+        <v>0.08777912815660993</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>1.008295823233226</v>
+        <v>0.8785414364104724</v>
       </c>
       <c r="H21">
-        <v>0.5733570631923612</v>
+        <v>0.8786850860954871</v>
       </c>
       <c r="I21">
-        <v>0.4677580723199313</v>
+        <v>0.7962154266411332</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2433761122699849</v>
+        <v>0.2230770387780012</v>
       </c>
       <c r="M21">
-        <v>0.6660082637362734</v>
+        <v>0.3076056752935372</v>
       </c>
       <c r="N21">
-        <v>0.5588550006072524</v>
+        <v>1.337302581323044</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.198494702869993</v>
+        <v>1.566765346915133</v>
       </c>
       <c r="C22">
-        <v>0.8286542419072589</v>
+        <v>0.2939265869183885</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0322661835090613</v>
+        <v>0.08750263747984621</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.07481716720909</v>
+        <v>0.8877342749287038</v>
       </c>
       <c r="H22">
-        <v>0.5981147420048387</v>
+        <v>0.8790923794176422</v>
       </c>
       <c r="I22">
-        <v>0.4832537325970563</v>
+        <v>0.794081661149292</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2591926452001729</v>
+        <v>0.2262508217146859</v>
       </c>
       <c r="M22">
-        <v>0.7166204155128568</v>
+        <v>0.3207243498344567</v>
       </c>
       <c r="N22">
-        <v>0.5299226045448826</v>
+        <v>1.325408614617601</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.038540689340039</v>
+        <v>1.523420871613723</v>
       </c>
       <c r="C23">
-        <v>0.7989068640573294</v>
+        <v>0.2852505206732587</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03244339255160511</v>
+        <v>0.08764900037045642</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>1.038993263404876</v>
+        <v>0.8827700404994658</v>
       </c>
       <c r="H23">
-        <v>0.5847363779422636</v>
+        <v>0.8788327963340663</v>
       </c>
       <c r="I23">
-        <v>0.4748137732807791</v>
+        <v>0.795177500827343</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2507169757186176</v>
+        <v>0.2245484550919628</v>
       </c>
       <c r="M23">
-        <v>0.6895447230688205</v>
+        <v>0.3137146862626352</v>
       </c>
       <c r="N23">
-        <v>0.5452247382801438</v>
+        <v>1.331710292591207</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.439228658308082</v>
+        <v>1.359810128728441</v>
       </c>
       <c r="C24">
-        <v>0.6874523560019838</v>
+        <v>0.2522568493476456</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0331575353323873</v>
+        <v>0.08822984706869552</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.909988154470895</v>
+        <v>0.8652357542598708</v>
       </c>
       <c r="H24">
-        <v>0.5375199962814463</v>
+        <v>0.8787756449790578</v>
       </c>
       <c r="I24">
-        <v>0.4464098578933076</v>
+        <v>0.800270626983135</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2193281731737642</v>
+        <v>0.2182869931111213</v>
       </c>
       <c r="M24">
-        <v>0.5882969359486481</v>
+        <v>0.2873426572683684</v>
       </c>
       <c r="N24">
-        <v>0.6061566898961033</v>
+        <v>1.356594663137123</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.803811227418691</v>
+        <v>1.184530541071979</v>
       </c>
       <c r="C25">
-        <v>0.5691733616030774</v>
+        <v>0.2163796418379036</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03401516001050298</v>
+        <v>0.0889132953563746</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.7829443606080417</v>
+        <v>0.8490048175773666</v>
       </c>
       <c r="H25">
-        <v>0.4929773464504734</v>
+        <v>0.8806848220859536</v>
       </c>
       <c r="I25">
-        <v>0.4223979940724902</v>
+        <v>0.8077680667160791</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1867677898572495</v>
+        <v>0.2119312687333164</v>
       </c>
       <c r="M25">
-        <v>0.4813366506331036</v>
+        <v>0.2592761967748842</v>
       </c>
       <c r="N25">
-        <v>0.6777081934723022</v>
+        <v>1.385607021892106</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.056501879908353</v>
+        <v>2.342817116381866</v>
       </c>
       <c r="C2">
-        <v>0.1897083962827537</v>
+        <v>0.4831691674802414</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08946581615927029</v>
+        <v>0.03471793937841172</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8393329927350806</v>
+        <v>0.6978739471202005</v>
       </c>
       <c r="H2">
-        <v>0.8837776229843968</v>
+        <v>0.464783081478771</v>
       </c>
       <c r="I2">
-        <v>0.8150015711907415</v>
+        <v>0.40953156017639</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2075937874129465</v>
+        <v>0.1637035796500257</v>
       </c>
       <c r="M2">
-        <v>0.2389369135504111</v>
+        <v>0.4040356566555374</v>
       </c>
       <c r="N2">
-        <v>1.408836080745495</v>
+        <v>0.7349323174949092</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9703779529608028</v>
+        <v>2.033512347016767</v>
       </c>
       <c r="C3">
-        <v>0.171470773973823</v>
+        <v>0.4253021705258675</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08987119776263774</v>
+        <v>0.03523710874213043</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.8341860943733934</v>
+        <v>0.6446416888140334</v>
       </c>
       <c r="H3">
-        <v>0.8869222500388787</v>
+        <v>0.4481503553539312</v>
       </c>
       <c r="I3">
-        <v>0.8209674896580594</v>
+        <v>0.4034196978487401</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2048676727839691</v>
+        <v>0.1485482442493762</v>
       </c>
       <c r="M3">
-        <v>0.2253560573279287</v>
+        <v>0.3523402860751972</v>
       </c>
       <c r="N3">
-        <v>1.425743839560418</v>
+        <v>0.7763363915990347</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9178159457725599</v>
+        <v>1.844788759265015</v>
       </c>
       <c r="C4">
-        <v>0.1601919505871479</v>
+        <v>0.3899021365868975</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09013542060389934</v>
+        <v>0.03557657307312784</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.8317159349234657</v>
+        <v>0.6138781325341682</v>
       </c>
       <c r="H4">
-        <v>0.8893691384776332</v>
+        <v>0.4390395934567692</v>
       </c>
       <c r="I4">
-        <v>0.8251536703059053</v>
+        <v>0.4008344000326041</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2032991707167895</v>
+        <v>0.1394497020079939</v>
       </c>
       <c r="M4">
-        <v>0.2171178492876109</v>
+        <v>0.3208767243128889</v>
       </c>
       <c r="N4">
-        <v>1.436700085840581</v>
+        <v>0.8029887836503526</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8964772808081136</v>
+        <v>1.768135198467093</v>
       </c>
       <c r="C5">
-        <v>0.1555753714161483</v>
+        <v>0.3754988954823659</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09024695334857158</v>
+        <v>0.03572004702692816</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.8308822803044507</v>
+        <v>0.6017890109852857</v>
       </c>
       <c r="H5">
-        <v>0.8904958936483212</v>
+        <v>0.4355874923275849</v>
       </c>
       <c r="I5">
-        <v>0.8269908835474808</v>
+        <v>0.4000578983515553</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2026865156704929</v>
+        <v>0.135790213167823</v>
       </c>
       <c r="M5">
-        <v>0.213786094590759</v>
+        <v>0.3081162354954117</v>
       </c>
       <c r="N5">
-        <v>1.441309367947799</v>
+        <v>0.8141501954064623</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8929389116609343</v>
+        <v>1.755420898475705</v>
       </c>
       <c r="C6">
-        <v>0.1548075608046986</v>
+        <v>0.37310832400712</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09026570664038314</v>
+        <v>0.03574417941547281</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.8307542821724354</v>
+        <v>0.5998076289418321</v>
       </c>
       <c r="H6">
-        <v>0.8906908155661029</v>
+        <v>0.4350295515852025</v>
       </c>
       <c r="I6">
-        <v>0.8273038757487328</v>
+        <v>0.3999452277967208</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2025863876267309</v>
+        <v>0.1351853650549586</v>
       </c>
       <c r="M6">
-        <v>0.213234395609355</v>
+        <v>0.3060008182706042</v>
       </c>
       <c r="N6">
-        <v>1.442083464083321</v>
+        <v>0.8160214272023438</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9175278370598505</v>
+        <v>1.843754018236268</v>
       </c>
       <c r="C7">
-        <v>0.1601297722981769</v>
+        <v>0.389707811156967</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09013690913426664</v>
+        <v>0.0355784872837227</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.8317039924261564</v>
+        <v>0.6137133292026959</v>
       </c>
       <c r="H7">
-        <v>0.8893838096243059</v>
+        <v>0.4389920030330643</v>
       </c>
       <c r="I7">
-        <v>0.8251779162322421</v>
+        <v>0.4008228273165777</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2032908008045382</v>
+        <v>0.1394001583754871</v>
       </c>
       <c r="M7">
-        <v>0.2170728131584667</v>
+        <v>0.3207043952527329</v>
       </c>
       <c r="N7">
-        <v>1.436761663090547</v>
+        <v>0.8031381057280349</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.026740653957972</v>
+        <v>2.23589259669842</v>
       </c>
       <c r="C8">
-        <v>0.1834368170488574</v>
+        <v>0.463183119364146</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08960241767724286</v>
+        <v>0.0348926142953826</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.837414776237452</v>
+        <v>0.6790984353547884</v>
       </c>
       <c r="H8">
-        <v>0.8847546911140398</v>
+        <v>0.4588092182363113</v>
       </c>
       <c r="I8">
-        <v>0.8169499191504883</v>
+        <v>0.4071716368648524</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2066319772872021</v>
+        <v>0.1584327263829906</v>
       </c>
       <c r="M8">
-        <v>0.2342334394847398</v>
+        <v>0.3861480902078611</v>
       </c>
       <c r="N8">
-        <v>1.414546562587223</v>
+        <v>0.7489475629631244</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.243413859792724</v>
+        <v>3.016621495163292</v>
       </c>
       <c r="C9">
-        <v>0.2285041083789565</v>
+        <v>0.6088107217727554</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08867543998649463</v>
+        <v>0.03371495779432587</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.854116368449553</v>
+        <v>0.8243009531390442</v>
       </c>
       <c r="H9">
-        <v>0.8797791264002939</v>
+        <v>0.507210549310912</v>
       </c>
       <c r="I9">
-        <v>0.8049757507656921</v>
+        <v>0.4296828591460269</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2140190348238491</v>
+        <v>0.1975814606927599</v>
       </c>
       <c r="M9">
-        <v>0.2686797731844237</v>
+        <v>0.5171102255262454</v>
       </c>
       <c r="N9">
-        <v>1.375544119948071</v>
+        <v>0.6528708366043112</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.404123278357019</v>
+        <v>3.600894218773817</v>
       </c>
       <c r="C10">
-        <v>0.2612344658201096</v>
+        <v>0.7175209520535191</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08806772908958882</v>
+        <v>0.03295663134662441</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.8697825429484709</v>
+        <v>0.9439517155360733</v>
       </c>
       <c r="H10">
-        <v>0.8786356868334053</v>
+        <v>0.5497877022503559</v>
       </c>
       <c r="I10">
-        <v>0.798730074179673</v>
+        <v>0.4535530188388606</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2199551448359784</v>
+        <v>0.2277353348857929</v>
       </c>
       <c r="M10">
-        <v>0.2944707039993162</v>
+        <v>0.6155763211050953</v>
       </c>
       <c r="N10">
-        <v>1.349669654958333</v>
+        <v>0.5891359524225663</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.477563410513142</v>
+        <v>3.869874463281235</v>
       </c>
       <c r="C11">
-        <v>0.2760436631714924</v>
+        <v>0.7675416308275942</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08780708011078375</v>
+        <v>0.03263611810708777</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.8776557957110356</v>
+        <v>1.001840765263978</v>
       </c>
       <c r="H11">
-        <v>0.8786635434740191</v>
+        <v>0.5709747527285032</v>
       </c>
       <c r="I11">
-        <v>0.7964461721145781</v>
+        <v>0.466296269310611</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2227661450364451</v>
+        <v>0.2418228945204532</v>
       </c>
       <c r="M11">
-        <v>0.3063085603922389</v>
+        <v>0.6610177092965444</v>
       </c>
       <c r="N11">
-        <v>1.33850253605107</v>
+        <v>0.5617852786995954</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.505420665834436</v>
+        <v>3.972267518224214</v>
       </c>
       <c r="C12">
-        <v>0.2816401050105526</v>
+        <v>0.7865825146233192</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08771064308650223</v>
+        <v>0.0325183867376968</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.8807452324366096</v>
+        <v>1.024318124154291</v>
       </c>
       <c r="H12">
-        <v>0.8787530876855243</v>
+        <v>0.5792862765232769</v>
       </c>
       <c r="I12">
-        <v>0.7956617220856259</v>
+        <v>0.4714196640652375</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2238464901631687</v>
+        <v>0.247216884658755</v>
       </c>
       <c r="M12">
-        <v>0.3108063436367203</v>
+        <v>0.6783328334603524</v>
       </c>
       <c r="N12">
-        <v>1.334360639074152</v>
+        <v>0.5516789769533545</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.49941902597385</v>
+        <v>3.950190193934418</v>
       </c>
       <c r="C13">
-        <v>0.280435321288337</v>
+        <v>0.7824770130554839</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08773131189859362</v>
+        <v>0.03254357826578558</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.8800750530866139</v>
+        <v>1.019451501891481</v>
       </c>
       <c r="H13">
-        <v>0.8787302863154451</v>
+        <v>0.5774829563498258</v>
       </c>
       <c r="I13">
-        <v>0.7958270865718902</v>
+        <v>0.4703025516392074</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2236131126802121</v>
+        <v>0.2460524509364035</v>
       </c>
       <c r="M13">
-        <v>0.3098369983101108</v>
+        <v>0.6745986926609788</v>
       </c>
       <c r="N13">
-        <v>1.335248806527947</v>
+        <v>0.5538441491482047</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.479854304618414</v>
+        <v>3.878287190241338</v>
       </c>
       <c r="C14">
-        <v>0.2765043157357923</v>
+        <v>0.7691060424819227</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08779910082388709</v>
+        <v>0.03262635856062512</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.8779077972291986</v>
+        <v>1.003678492466392</v>
       </c>
       <c r="H14">
-        <v>0.8786693260373681</v>
+        <v>0.5716526025765205</v>
       </c>
       <c r="I14">
-        <v>0.7963800217295187</v>
+        <v>0.4667116434991883</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2228547075769143</v>
+        <v>0.2422654354537599</v>
       </c>
       <c r="M14">
-        <v>0.3066782948910358</v>
+        <v>0.6624399955054372</v>
       </c>
       <c r="N14">
-        <v>1.338160038562194</v>
+        <v>0.5609487125196075</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.467876455526209</v>
+        <v>3.834316749014135</v>
       </c>
       <c r="C15">
-        <v>0.274094967075257</v>
+        <v>0.7609293965317079</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08784091826722884</v>
+        <v>0.03267754185692617</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.8765943751947844</v>
+        <v>0.9940913116172965</v>
       </c>
       <c r="H15">
-        <v>0.8786422793778854</v>
+        <v>0.5681197493808554</v>
       </c>
       <c r="I15">
-        <v>0.7967291910101366</v>
+        <v>0.464551727990802</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2223922298001639</v>
+        <v>0.2399536958251929</v>
       </c>
       <c r="M15">
-        <v>0.3047454535474898</v>
+        <v>0.6550068795356552</v>
       </c>
       <c r="N15">
-        <v>1.339954565372704</v>
+        <v>0.5653335798201589</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.399330421065997</v>
+        <v>3.583386381874448</v>
       </c>
       <c r="C16">
-        <v>0.2602650421345913</v>
+        <v>0.7142648647014482</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08808508046931973</v>
+        <v>0.03297807993035173</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.8692830863448648</v>
+        <v>0.940243027406936</v>
       </c>
       <c r="H16">
-        <v>0.87864491012472</v>
+        <v>0.5484419193649188</v>
       </c>
       <c r="I16">
-        <v>0.7988905702353861</v>
+        <v>0.4527603770091631</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2197736631406286</v>
+        <v>0.226822640551859</v>
       </c>
       <c r="M16">
-        <v>0.2936991837812641</v>
+        <v>0.612620855196468</v>
       </c>
       <c r="N16">
-        <v>1.350411600404243</v>
+        <v>0.5909576565257453</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.357364297692584</v>
+        <v>3.430318845274542</v>
       </c>
       <c r="C17">
-        <v>0.2517603571511415</v>
+        <v>0.6857950266461614</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08823890814584934</v>
+        <v>0.03316879666707995</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.8649895339832057</v>
+        <v>0.9081348940249683</v>
       </c>
       <c r="H17">
-        <v>0.8787870192936964</v>
+        <v>0.5368543798870604</v>
       </c>
       <c r="I17">
-        <v>0.8003594376503287</v>
+        <v>0.4460277820563618</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2181955728082556</v>
+        <v>0.2188661926045938</v>
       </c>
       <c r="M17">
-        <v>0.2869495752226072</v>
+        <v>0.5867942301251929</v>
       </c>
       <c r="N17">
-        <v>1.356981238882675</v>
+        <v>0.6071079119945395</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.333257845394655</v>
+        <v>3.342573837714554</v>
       </c>
       <c r="C18">
-        <v>0.2468611551717856</v>
+        <v>0.6694722326672888</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08832887351904495</v>
+        <v>0.03328078529239242</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.8625902342076586</v>
+        <v>0.8899889427829351</v>
       </c>
       <c r="H18">
-        <v>0.8789203267158427</v>
+        <v>0.5303589457442968</v>
       </c>
       <c r="I18">
-        <v>0.8012567292318238</v>
+        <v>0.4423310186572849</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2172983120748739</v>
+        <v>0.2143243256834637</v>
       </c>
       <c r="M18">
-        <v>0.2830773096545727</v>
+        <v>0.5719995719789424</v>
       </c>
       <c r="N18">
-        <v>1.36081670112754</v>
+        <v>0.6165507799350287</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.325101222770002</v>
+        <v>3.312913384584817</v>
       </c>
       <c r="C19">
-        <v>0.2452010751621572</v>
+        <v>0.6639540935762795</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08835958999300664</v>
+        <v>0.03331909308652425</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.8617899164379565</v>
+        <v>0.8838986053223863</v>
       </c>
       <c r="H19">
-        <v>0.8789743136995298</v>
+        <v>0.5281880184509475</v>
       </c>
       <c r="I19">
-        <v>0.8015695345937885</v>
+        <v>0.4411087475534003</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2169963046881378</v>
+        <v>0.2127922715073112</v>
       </c>
       <c r="M19">
-        <v>0.2817679362705405</v>
+        <v>0.5670002716427334</v>
       </c>
       <c r="N19">
-        <v>1.36212507197714</v>
+        <v>0.6197739409916565</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.361828423872964</v>
+        <v>3.446582038010035</v>
       </c>
       <c r="C20">
-        <v>0.2526664747553298</v>
+        <v>0.688820155127047</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08822237900168062</v>
+        <v>0.03314825633888885</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.8654393159460909</v>
+        <v>0.9115191473299831</v>
       </c>
       <c r="H20">
-        <v>0.8787665528411424</v>
+        <v>0.5380701723231596</v>
       </c>
       <c r="I20">
-        <v>0.8001976450765085</v>
+        <v>0.4467261129283386</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2183624855055513</v>
+        <v>0.2197095600773622</v>
       </c>
       <c r="M20">
-        <v>0.2876670556322694</v>
+        <v>0.5895371962432137</v>
       </c>
       <c r="N20">
-        <v>1.356276012468864</v>
+        <v>0.6053726839344478</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.485599666049666</v>
+        <v>3.899391645843536</v>
       </c>
       <c r="C21">
-        <v>0.2776592587100879</v>
+        <v>0.7730305819613079</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08777912815660993</v>
+        <v>0.03260194412858886</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.8785414364104724</v>
+        <v>1.008295823233254</v>
       </c>
       <c r="H21">
-        <v>0.8786850860954871</v>
+        <v>0.5733570631924749</v>
       </c>
       <c r="I21">
-        <v>0.7962154266411332</v>
+        <v>0.4677580723199384</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2230770387780012</v>
+        <v>0.2433761122699423</v>
       </c>
       <c r="M21">
-        <v>0.3076056752935372</v>
+        <v>0.6660082637363018</v>
       </c>
       <c r="N21">
-        <v>1.337302581323044</v>
+        <v>0.5588550006072488</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.566765346915133</v>
+        <v>4.19849470286988</v>
       </c>
       <c r="C22">
-        <v>0.2939265869183885</v>
+        <v>0.8286542419070031</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08750263747984621</v>
+        <v>0.03226618350905897</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.8877342749287038</v>
+        <v>1.074817167209062</v>
       </c>
       <c r="H22">
-        <v>0.8790923794176422</v>
+        <v>0.5981147420048387</v>
       </c>
       <c r="I22">
-        <v>0.794081661149292</v>
+        <v>0.4832537325970421</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2262508217146859</v>
+        <v>0.2591926452002866</v>
       </c>
       <c r="M22">
-        <v>0.3207243498344567</v>
+        <v>0.7166204155128568</v>
       </c>
       <c r="N22">
-        <v>1.325408614617601</v>
+        <v>0.5299226045448755</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.523420871613723</v>
+        <v>4.038540689340095</v>
       </c>
       <c r="C23">
-        <v>0.2852505206732587</v>
+        <v>0.7989068640572157</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08764900037045642</v>
+        <v>0.0324433925516171</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.8827700404994658</v>
+        <v>1.038993263404876</v>
       </c>
       <c r="H23">
-        <v>0.8788327963340663</v>
+        <v>0.5847363779423773</v>
       </c>
       <c r="I23">
-        <v>0.795177500827343</v>
+        <v>0.474813773280772</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2245484550919628</v>
+        <v>0.250716975718575</v>
       </c>
       <c r="M23">
-        <v>0.3137146862626352</v>
+        <v>0.6895447230688134</v>
       </c>
       <c r="N23">
-        <v>1.331710292591207</v>
+        <v>0.5452247382802007</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.359810128728441</v>
+        <v>3.439228658307968</v>
       </c>
       <c r="C24">
-        <v>0.2522568493476456</v>
+        <v>0.6874523560019838</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08822984706869552</v>
+        <v>0.0331575353323893</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.8652357542598708</v>
+        <v>0.9099881544708808</v>
       </c>
       <c r="H24">
-        <v>0.8787756449790578</v>
+        <v>0.5375199962814605</v>
       </c>
       <c r="I24">
-        <v>0.800270626983135</v>
+        <v>0.4464098578933005</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2182869931111213</v>
+        <v>0.2193281731737216</v>
       </c>
       <c r="M24">
-        <v>0.2873426572683684</v>
+        <v>0.5882969359486552</v>
       </c>
       <c r="N24">
-        <v>1.356594663137123</v>
+        <v>0.6061566898960606</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.184530541071979</v>
+        <v>2.803811227418578</v>
       </c>
       <c r="C25">
-        <v>0.2163796418379036</v>
+        <v>0.5691733616028216</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0889132953563746</v>
+        <v>0.03401516001049887</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.8490048175773666</v>
+        <v>0.7829443606080844</v>
       </c>
       <c r="H25">
-        <v>0.8806848220859536</v>
+        <v>0.4929773464504734</v>
       </c>
       <c r="I25">
-        <v>0.8077680667160791</v>
+        <v>0.4223979940725044</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2119312687333164</v>
+        <v>0.18676778985715</v>
       </c>
       <c r="M25">
-        <v>0.2592761967748842</v>
+        <v>0.4813366506331036</v>
       </c>
       <c r="N25">
-        <v>1.385607021892106</v>
+        <v>0.6777081934722808</v>
       </c>
       <c r="O25">
         <v>0</v>
